--- a/biology/Médecine/Triglycéride/Triglycéride.xlsx
+++ b/biology/Médecine/Triglycéride/Triglycéride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Triglyc%C3%A9ride</t>
+          <t>Triglycéride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les triglycérides (aussi appelés triacylglycérols, triacylglycérides, TG ou TAG) sont des glycérides dans lesquels les trois groupes hydroxyle du glycérol sont estérifiés par des acides gras. Ils sont les constituants principaux des graisses animales, de l'huile végétale et des produits laitiers.
 Les triglycérides sont les plus abondants des glycérides et se retrouvent dans tout le monde vivant. Ils constituent une forme de réserve. Ils sont source d’ATP par la libération des acides gras.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Triglyc%C3%A9ride</t>
+          <t>Triglycéride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Structure chimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formule chimique générale des triglycérides est : 
 CH2-OOC-R1
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Triglyc%C3%A9ride</t>
+          <t>Triglycéride</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,6 +570,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Triglyc%C3%A9ride</t>
+          <t>Triglycéride</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Produits de dégradation en cas de radiolyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous l'effet d'une forte exposition à une source radioactive (ou à une certaine gamme d'ultraviolets ; dans les courtes longueurs d'onde des UV-C)[1], les triglycérides présents dans des échantillons de tissus vivants sont cassés (phénomène dit radiolyse) en sous-produits qui n'existent pas dans la nature (on parle alors de  « composés radiolytiques »)[2]. Ces composés appartiennent à la famille des alkylcyclobutanones (ou 2-alkylcyclobutanones ou 2-ACB) et en 2-tétradécylcyclobutanone (2-tDCB), qui sont de petites molécules organiques n'existant pas dans la Nature. Leur type et leur quantité varient, linéairement, en fonction de la teneur du produit en lipides d'une part, et de la dose d'irradiation ionisante et de la durée d'exposition d'autre part. Les types de 2-alkylcyclobutanones retrouvés diffère selon le type de triglycéride présents avant l'irradiation[réf. nécessaire]. Une certaine toxicité de ces molécules est suspectée et discutée car les résultats d'études sont parfois contradictoires. Pour l'être humain, en 2021, elles sont généralement considérée (par exemple selon des chercheurs de l'Institut de recherche énergétique et nucléaire du Brésil) comme acceptable (en termes de génotoxicité notamment) dans les produits irradiés s'ils l'ont été en tenant compte des recommandations[3] en termes d'intensité et de durée de traitement[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous l'effet d'une forte exposition à une source radioactive (ou à une certaine gamme d'ultraviolets ; dans les courtes longueurs d'onde des UV-C), les triglycérides présents dans des échantillons de tissus vivants sont cassés (phénomène dit radiolyse) en sous-produits qui n'existent pas dans la nature (on parle alors de  « composés radiolytiques »). Ces composés appartiennent à la famille des alkylcyclobutanones (ou 2-alkylcyclobutanones ou 2-ACB) et en 2-tétradécylcyclobutanone (2-tDCB), qui sont de petites molécules organiques n'existant pas dans la Nature. Leur type et leur quantité varient, linéairement, en fonction de la teneur du produit en lipides d'une part, et de la dose d'irradiation ionisante et de la durée d'exposition d'autre part. Les types de 2-alkylcyclobutanones retrouvés diffère selon le type de triglycéride présents avant l'irradiation[réf. nécessaire]. Une certaine toxicité de ces molécules est suspectée et discutée car les résultats d'études sont parfois contradictoires. Pour l'être humain, en 2021, elles sont généralement considérée (par exemple selon des chercheurs de l'Institut de recherche énergétique et nucléaire du Brésil) comme acceptable (en termes de génotoxicité notamment) dans les produits irradiés s'ils l'ont été en tenant compte des recommandations en termes d'intensité et de durée de traitement.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Triglyc%C3%A9ride</t>
+          <t>Triglycéride</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Rôle biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils ont un rôle fondamental en étant une réserve d'énergie très importante (énergie grâce aux acides gras, réserve grâce au glycérol). Les triglycérides sont hydrolysables par les lipases : des acides gras peuvent  être libérés. De plus, les triglycérides sont une réserve d'énergie anhydre, donc il n'y a pas de surpoids pour l'organisme. Exemple : chez l'homme de 70 kg, il y a 7 kg de triglycérides, ce qui équivaut à 42 kg de glycogène[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont un rôle fondamental en étant une réserve d'énergie très importante (énergie grâce aux acides gras, réserve grâce au glycérol). Les triglycérides sont hydrolysables par les lipases : des acides gras peuvent  être libérés. De plus, les triglycérides sont une réserve d'énergie anhydre, donc il n'y a pas de surpoids pour l'organisme. Exemple : chez l'homme de 70 kg, il y a 7 kg de triglycérides, ce qui équivaut à 42 kg de glycogène.
 Cette réserve d'énergie est stockée dans les cellules adipeuses.
 Ils ne peuvent pas être des lipides membranaires, car ils sont trop hydrophobes, contrairement aux phospholipides qui constituent les membranes plasmiques.
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Triglyc%C3%A9ride</t>
+          <t>Triglycéride</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,11 +667,51 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives
-Le dosage se fait classiquement par une prise de sang à jeun. Sa valeur reste effectivement sensiblement augmentée jusqu'à six heures après un repas normal[6] mais elle ne dépasse pas de plus de 20 % de la valeur mesurée à jeun[7].
+          <t>Directives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dosage se fait classiquement par une prise de sang à jeun. Sa valeur reste effectivement sensiblement augmentée jusqu'à six heures après un repas normal mais elle ne dépasse pas de plus de 20 % de la valeur mesurée à jeun.
 L'American Heart Association a établi les directives suivantes pour la triglycéridémie :
-Réduire la triglycéridémie
-De l'activité cardio-vasculaire et des régimes pauvres, ou modérés, en glucides et riches en acides gras essentiels sont recommandés pour réduire la triglycéridémie. Si cela échoue, des médicaments à base de fibrates (et certaines statines) pour les cas les plus sévères sont enregistrés pour la réduction du taux de triglycérides. Il est alors recommandé une diète cétogène[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Triglycéride</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triglyc%C3%A9ride</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rôle dans les maladies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réduire la triglycéridémie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De l'activité cardio-vasculaire et des régimes pauvres, ou modérés, en glucides et riches en acides gras essentiels sont recommandés pour réduire la triglycéridémie. Si cela échoue, des médicaments à base de fibrates (et certaines statines) pour les cas les plus sévères sont enregistrés pour la réduction du taux de triglycérides. Il est alors recommandé une diète cétogène[réf. nécessaire].
 </t>
         </is>
       </c>
